--- a/week_plan/2021_october_weekplan.xlsx
+++ b/week_plan/2021_october_weekplan.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17925" activeTab="2"/>
+    <workbookView windowHeight="17925" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="8" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="9" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="10" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="11" r:id="rId5"/>
+    <sheet name="Sheet7" sheetId="12" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="178">
   <si>
     <t>周计划</t>
   </si>
@@ -631,6 +634,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">9 </t>
     </r>
     <r>
@@ -765,6 +775,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">14 </t>
     </r>
     <r>
@@ -836,6 +852,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">19 </t>
     </r>
     <r>
@@ -894,6 +916,949 @@
       </rPr>
       <t>睡前阅读半小时</t>
     </r>
+  </si>
+  <si>
+    <t>10.25 ~ 10.31</t>
+  </si>
+  <si>
+    <t>牙刷、牙膏</t>
+  </si>
+  <si>
+    <t>静谈</t>
+  </si>
+  <si>
+    <t>提交移动端Release + 对接相关事宜</t>
+  </si>
+  <si>
+    <t>表面跟踪的对接事宜讨论</t>
+  </si>
+  <si>
+    <t>基本完成表面跟踪接口封装</t>
+  </si>
+  <si>
+    <t>Kiwi 整理后续开发</t>
+  </si>
+  <si>
+    <t>Kiwi 后续开发</t>
+  </si>
+  <si>
+    <t>表面跟踪接口封装</t>
+  </si>
+  <si>
+    <t>完成表面跟踪接口封装</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">8 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>阅读</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">8 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>《code complete》</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">9 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="文泉驿微米黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表面跟踪接口封装</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">9 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>表面跟踪接口封装(demo test + 着手剔除opencv依赖)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="文泉驿微米黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表面跟踪接口封装</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>OKR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="文泉驿微米黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修改</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="文泉驿微米黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>面试记录</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">11 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">修改render, tracking的一些潜规则. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">13 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>表面跟踪分享/文档准备</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">15 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>表面跟踪对接事宜讨论</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">19 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="文泉驿微米黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表面跟踪接口封装</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">20 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>游泳</t>
+    </r>
+  </si>
+  <si>
+    <t>VC需求与表面跟踪有些不同. 更像Auto Tracker.</t>
+  </si>
+  <si>
+    <t>重点工作文档</t>
+  </si>
+  <si>
+    <t>上午写了工作计划报告, 下午旁听音视频组工作计划报告, 和我们组Q4和未来工作计划. 晚上, demo gl修改.</t>
+  </si>
+  <si>
+    <t>uv计算新方案, 支持贴图分辨率改变. demo全流程正常.</t>
+  </si>
+  <si>
+    <t>修改render, tracking的一些潜规则. 某些容易遗忘的设置. 改用uniform buffer. kiwi的整理.</t>
+  </si>
+  <si>
+    <t>11.1 ~ 11.5</t>
+  </si>
+  <si>
+    <t>kiwi文档整理</t>
+  </si>
+  <si>
+    <t>目标跟踪相关事宜</t>
+  </si>
+  <si>
+    <t>kiwi设计+文档+分享+反馈</t>
+  </si>
+  <si>
+    <t>kiwi 设计/代码整理 + 文档格式结构确定</t>
+  </si>
+  <si>
+    <t>kiwi opengl backend 完善</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">7 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.35"/>
+        <rFont val="文泉驿微米黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>运动</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">9 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="文泉驿微米黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>现代图形</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>API</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="文泉驿微米黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和传统图形</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>API</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="文泉驿微米黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>比较</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="文泉驿微米黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开发</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">9 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>现代图形API和传统图形API比较&amp;现代图形API开发的常用做法</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">9 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OpenGL/Metal/Vulkan核心类、函数的比较</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">kiwi </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="文泉驿微米黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="文泉驿微米黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>代码整理</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>目标跟踪需求讨论</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">11 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.35"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>现代图形API类比较 --&gt; 现代图形API和传统图形API比较</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">13 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>深入理解GPU运行机制</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">19 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.35"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>kiwi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.35"/>
+        <rFont val="文泉驿微米黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分享</t>
+    </r>
+  </si>
+  <si>
+    <t>现代图形API和传统图形API的比较文档 markdown</t>
+  </si>
+  <si>
+    <t>现代图形API和传统图形API的比较 + 深入理解GPU运行机制markdown</t>
+  </si>
+  <si>
+    <t>to latex</t>
+  </si>
+  <si>
+    <t>渲染模式: IMR, TBR, TBDR</t>
+  </si>
+  <si>
+    <t>kiwi object</t>
+  </si>
+  <si>
+    <t>11.8 ~ 11.12</t>
+  </si>
+  <si>
+    <t>牙刷</t>
+  </si>
+  <si>
+    <t>完成kiwi各个backend资源绑定、同步、shader兼容的设计</t>
+  </si>
+  <si>
+    <t>目标跟踪推进实施计划和排期</t>
+  </si>
+  <si>
+    <t>kiwi Object抽象整理调整</t>
+  </si>
+  <si>
+    <t>kiwi 各个backend, 资源绑定, 同步, shader的兼容</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kiwi Opengl backend完善</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>《Vulkan Programming Guide》</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>《code complete》</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>paper reading</t>
+    </r>
+  </si>
+  <si>
+    <t>8 《code complete》</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">9 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>kiwi Object</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.5"/>
+        <rFont val="文泉驿微米黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的各层次抽象调整</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.5"/>
+        <rFont val="文泉驿微米黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以及</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Object</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.5"/>
+        <rFont val="文泉驿微米黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文档的整理</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">9 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>kiwi shader和资源绑定的兼容</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">9 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>kiwi 并行同步设计</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">9 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>kiwi Opengl backend</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="文泉驿微米黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>完善</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">11 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>现代图形API类比较 --&gt; 现代图形API和传统图形API比较</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">13 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>kiwi objects抽象分析和整理</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">17 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OKR更新</t>
+    </r>
+  </si>
+  <si>
+    <t>17 OKR更新</t>
+  </si>
+  <si>
+    <t>18 游泳</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">19 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="文泉驿微米黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>现代图形</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>API</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="文泉驿微米黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分享</t>
+    </r>
+  </si>
+  <si>
+    <t>19 deep learing paper reading</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">20 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>游泳</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">20 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>游泳</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">21 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中长期计划</t>
+    </r>
+  </si>
+  <si>
+    <t>目标跟踪, 本周下半周给出需求. command queue, 同步相关</t>
+  </si>
+  <si>
+    <t>vulkan, fence...; 专利相关讨论; 重点工作计划</t>
+  </si>
+  <si>
+    <t>vulkan fence, event, semaphore同步问题</t>
   </si>
 </sst>
 </file>
@@ -906,7 +1871,7 @@
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -929,13 +1894,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -943,6 +1901,52 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -956,55 +1960,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1025,6 +1983,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -1032,9 +2019,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1049,46 +2043,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1098,9 +2056,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0" tint="-0.35"/>
+      <name val="文泉驿微米黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.5"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.5"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.5"/>
+      <name val="文泉驿微米黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1114,9 +2091,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="宋体"/>
+      <color theme="0" tint="-0.35"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.35"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.5"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1134,7 +2125,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1146,7 +2197,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1158,43 +2263,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1212,73 +2293,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1291,30 +2306,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1380,6 +2371,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1399,7 +2399,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1419,6 +2419,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1430,6 +2441,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1448,182 +2468,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1649,36 +2640,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1688,13 +2679,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1703,15 +2694,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1724,7 +2715,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2950,7 +3941,7 @@
       <c r="G18" s="31"/>
     </row>
     <row r="19" ht="47.25" spans="1:7">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="11" t="s">
         <v>62</v>
       </c>
       <c r="B19" s="22" t="s">
@@ -3536,8 +4527,8 @@
   <sheetPr/>
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.10666666666667" defaultRowHeight="15.75" outlineLevelCol="6"/>
@@ -3630,7 +4621,7 @@
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="11" t="s">
         <v>74</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -3646,7 +4637,7 @@
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>76</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -3694,24 +4685,24 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="16"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="15"/>
     </row>
     <row r="19" ht="31.5" spans="1:7">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="11" t="s">
         <v>66</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -3730,17 +4721,17 @@
     <row r="20" spans="1:7">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="11" t="s">
         <v>83</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8" t="s">
+      <c r="E20" s="11"/>
+      <c r="F20" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="11" t="s">
         <v>82</v>
       </c>
     </row>
@@ -3750,7 +4741,7 @@
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="11" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3809,15 +4800,15 @@
       <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="16"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="15"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="12">
@@ -4196,13 +5187,13 @@
       <c r="B48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="C48" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
@@ -4284,4 +5275,2248 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G81"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.10666666666667" defaultRowHeight="15.75" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="34" style="1" customWidth="1"/>
+    <col min="2" max="2" width="55.22" style="1" customWidth="1"/>
+    <col min="3" max="3" width="47.78" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.5533333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.1066666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28.1066666666667" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.10666666666667" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:3">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:3">
+      <c r="A6" s="3"/>
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="7"/>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:2">
+      <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="6"/>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:7">
+      <c r="A17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:7">
+      <c r="A18" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="15"/>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:7">
+      <c r="A19" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:7">
+      <c r="A20" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:7">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:7">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:7">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:7">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:7">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:7">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:7">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:7">
+      <c r="A28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="15"/>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="1:7">
+      <c r="A29" s="12">
+        <v>7</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="13">
+        <v>7</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29" s="13">
+        <v>7</v>
+      </c>
+      <c r="F29" s="13">
+        <v>7</v>
+      </c>
+      <c r="G29" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="1:7">
+      <c r="A30" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="1:7">
+      <c r="A31" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D31" s="12">
+        <v>9</v>
+      </c>
+      <c r="E31" s="13">
+        <v>9</v>
+      </c>
+      <c r="F31" s="13">
+        <v>9</v>
+      </c>
+      <c r="G31" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="1:7">
+      <c r="A32" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B32" s="12">
+        <v>10</v>
+      </c>
+      <c r="C32" s="12">
+        <v>10</v>
+      </c>
+      <c r="D32" s="13">
+        <v>10</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="G32" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" ht="31.5" spans="1:7">
+      <c r="A33" s="12">
+        <v>11</v>
+      </c>
+      <c r="B33" s="12">
+        <v>11</v>
+      </c>
+      <c r="C33" s="12">
+        <v>11</v>
+      </c>
+      <c r="D33" s="12">
+        <v>11</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="F33" s="12">
+        <v>11</v>
+      </c>
+      <c r="G33" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" spans="1:7">
+      <c r="A34" s="12">
+        <v>12</v>
+      </c>
+      <c r="B34" s="13">
+        <v>12</v>
+      </c>
+      <c r="C34" s="13">
+        <v>12</v>
+      </c>
+      <c r="D34" s="13">
+        <v>12</v>
+      </c>
+      <c r="E34" s="13">
+        <v>12</v>
+      </c>
+      <c r="F34" s="12">
+        <v>12</v>
+      </c>
+      <c r="G34" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="1:7">
+      <c r="A35" s="12">
+        <v>13</v>
+      </c>
+      <c r="B35" s="12">
+        <v>13</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D35" s="12">
+        <v>13</v>
+      </c>
+      <c r="E35" s="12">
+        <v>13</v>
+      </c>
+      <c r="F35" s="13">
+        <v>13</v>
+      </c>
+      <c r="G35" s="12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="1" spans="1:7">
+      <c r="A36" s="12">
+        <v>14</v>
+      </c>
+      <c r="B36" s="12">
+        <v>14</v>
+      </c>
+      <c r="C36" s="12">
+        <v>14</v>
+      </c>
+      <c r="D36" s="13">
+        <v>14</v>
+      </c>
+      <c r="E36" s="12">
+        <v>14</v>
+      </c>
+      <c r="F36" s="12">
+        <v>14</v>
+      </c>
+      <c r="G36" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="1:7">
+      <c r="A37" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B37" s="12">
+        <v>15</v>
+      </c>
+      <c r="C37" s="12">
+        <v>15</v>
+      </c>
+      <c r="D37" s="12">
+        <v>15</v>
+      </c>
+      <c r="E37" s="12">
+        <v>15</v>
+      </c>
+      <c r="F37" s="13">
+        <v>15</v>
+      </c>
+      <c r="G37" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" s="1" customFormat="1" spans="1:7">
+      <c r="A38" s="12">
+        <v>16</v>
+      </c>
+      <c r="B38" s="12">
+        <v>16</v>
+      </c>
+      <c r="C38" s="12">
+        <v>16</v>
+      </c>
+      <c r="D38" s="12">
+        <v>16</v>
+      </c>
+      <c r="E38" s="12">
+        <v>16</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="G38" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" s="1" customFormat="1" spans="1:7">
+      <c r="A39" s="12">
+        <v>17</v>
+      </c>
+      <c r="B39" s="12">
+        <v>17</v>
+      </c>
+      <c r="C39" s="12">
+        <v>17</v>
+      </c>
+      <c r="D39" s="12">
+        <v>17</v>
+      </c>
+      <c r="E39" s="12">
+        <v>17</v>
+      </c>
+      <c r="F39" s="12">
+        <v>17</v>
+      </c>
+      <c r="G39" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" s="1" customFormat="1" spans="1:7">
+      <c r="A40" s="12">
+        <v>18</v>
+      </c>
+      <c r="B40" s="12">
+        <v>18</v>
+      </c>
+      <c r="C40" s="12">
+        <v>18</v>
+      </c>
+      <c r="D40" s="12">
+        <v>18</v>
+      </c>
+      <c r="E40" s="12">
+        <v>18</v>
+      </c>
+      <c r="F40" s="12">
+        <v>18</v>
+      </c>
+      <c r="G40" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" s="1" customFormat="1" spans="1:7">
+      <c r="A41" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="B41" s="13">
+        <v>19</v>
+      </c>
+      <c r="C41" s="13">
+        <v>19</v>
+      </c>
+      <c r="D41" s="12">
+        <v>19</v>
+      </c>
+      <c r="E41" s="12">
+        <v>19</v>
+      </c>
+      <c r="F41" s="12">
+        <v>19</v>
+      </c>
+      <c r="G41" s="13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" s="1" customFormat="1" spans="1:7">
+      <c r="A42" s="12">
+        <v>20</v>
+      </c>
+      <c r="B42" s="12">
+        <v>20</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D42" s="12">
+        <v>20</v>
+      </c>
+      <c r="E42" s="12">
+        <v>20</v>
+      </c>
+      <c r="F42" s="13">
+        <v>20</v>
+      </c>
+      <c r="G42" s="13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" s="1" customFormat="1" spans="1:7">
+      <c r="A43" s="12">
+        <v>21</v>
+      </c>
+      <c r="B43" s="12">
+        <v>21</v>
+      </c>
+      <c r="C43" s="12">
+        <v>21</v>
+      </c>
+      <c r="D43" s="12">
+        <v>21</v>
+      </c>
+      <c r="E43" s="12">
+        <v>21</v>
+      </c>
+      <c r="F43" s="12">
+        <v>21</v>
+      </c>
+      <c r="G43" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" ht="47.25" spans="1:5">
+      <c r="A44" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="64" s="1" customFormat="1" spans="1:3">
+      <c r="A64" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="65" s="1" customFormat="1" ht="30" spans="1:3">
+      <c r="A65" s="14"/>
+      <c r="B65" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="66" s="1" customFormat="1" ht="31.5" spans="1:3">
+      <c r="A66" s="14"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" s="1" customFormat="1" spans="1:7">
+      <c r="A67" s="14"/>
+      <c r="B67" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16"/>
+    </row>
+    <row r="70" s="1" customFormat="1" spans="1:2">
+      <c r="A70" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="72" s="1" customFormat="1" spans="1:3">
+      <c r="A72" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="73" s="1" customFormat="1" spans="2:3">
+      <c r="B73" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="75" s="1" customFormat="1" spans="1:3">
+      <c r="A75" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="78" s="1" customFormat="1" spans="1:3">
+      <c r="A78" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="79" s="1" customFormat="1" spans="2:3">
+      <c r="B79" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="80" s="1" customFormat="1" spans="3:3">
+      <c r="C80" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="81" s="1" customFormat="1" spans="3:3">
+      <c r="C81" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="B65:B66"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G81"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.10666666666667" defaultRowHeight="15.75" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="34" style="1" customWidth="1"/>
+    <col min="2" max="2" width="55.22" style="1" customWidth="1"/>
+    <col min="3" max="3" width="47.78" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.5533333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.1066666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28.1066666666667" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.10666666666667" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:3">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:3">
+      <c r="A6" s="3"/>
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="7"/>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:3">
+      <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="6"/>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:7">
+      <c r="A17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:7">
+      <c r="A18" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="15"/>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:7">
+      <c r="A19" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:7">
+      <c r="A20" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:7">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:7">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:7">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:7">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:7">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:7">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:7">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:7">
+      <c r="A28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="15"/>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="1:7">
+      <c r="A29" s="12">
+        <v>7</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="13">
+        <v>7</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E29" s="13">
+        <v>7</v>
+      </c>
+      <c r="F29" s="13">
+        <v>7</v>
+      </c>
+      <c r="G29" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="1:7">
+      <c r="A30" s="12">
+        <v>8</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" s="12">
+        <v>8</v>
+      </c>
+      <c r="D30" s="12">
+        <v>8</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="30.75" spans="1:7">
+      <c r="A31" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="E31" s="13">
+        <v>9</v>
+      </c>
+      <c r="F31" s="13">
+        <v>9</v>
+      </c>
+      <c r="G31" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="1:7">
+      <c r="A32" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B32" s="12">
+        <v>10</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D32" s="13">
+        <v>10</v>
+      </c>
+      <c r="E32" s="13">
+        <v>10</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="G32" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" ht="31.5" spans="1:7">
+      <c r="A33" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B33" s="12">
+        <v>11</v>
+      </c>
+      <c r="C33" s="12">
+        <v>11</v>
+      </c>
+      <c r="D33" s="12">
+        <v>11</v>
+      </c>
+      <c r="E33" s="12">
+        <v>11</v>
+      </c>
+      <c r="F33" s="12">
+        <v>11</v>
+      </c>
+      <c r="G33" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" spans="1:7">
+      <c r="A34" s="12">
+        <v>12</v>
+      </c>
+      <c r="B34" s="13">
+        <v>12</v>
+      </c>
+      <c r="C34" s="13">
+        <v>12</v>
+      </c>
+      <c r="D34" s="13">
+        <v>12</v>
+      </c>
+      <c r="E34" s="13">
+        <v>12</v>
+      </c>
+      <c r="F34" s="12">
+        <v>12</v>
+      </c>
+      <c r="G34" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="1:7">
+      <c r="A35" s="12">
+        <v>13</v>
+      </c>
+      <c r="B35" s="12">
+        <v>13</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D35" s="12">
+        <v>13</v>
+      </c>
+      <c r="E35" s="12">
+        <v>13</v>
+      </c>
+      <c r="F35" s="13">
+        <v>13</v>
+      </c>
+      <c r="G35" s="12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="1" spans="1:7">
+      <c r="A36" s="12">
+        <v>14</v>
+      </c>
+      <c r="B36" s="12">
+        <v>14</v>
+      </c>
+      <c r="C36" s="12">
+        <v>14</v>
+      </c>
+      <c r="D36" s="13">
+        <v>14</v>
+      </c>
+      <c r="E36" s="12">
+        <v>14</v>
+      </c>
+      <c r="F36" s="12">
+        <v>14</v>
+      </c>
+      <c r="G36" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="1:7">
+      <c r="A37" s="12">
+        <v>15</v>
+      </c>
+      <c r="B37" s="12">
+        <v>15</v>
+      </c>
+      <c r="C37" s="12">
+        <v>15</v>
+      </c>
+      <c r="D37" s="12">
+        <v>15</v>
+      </c>
+      <c r="E37" s="12">
+        <v>15</v>
+      </c>
+      <c r="F37" s="13">
+        <v>15</v>
+      </c>
+      <c r="G37" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" s="1" customFormat="1" spans="1:7">
+      <c r="A38" s="12">
+        <v>16</v>
+      </c>
+      <c r="B38" s="12">
+        <v>16</v>
+      </c>
+      <c r="C38" s="12">
+        <v>16</v>
+      </c>
+      <c r="D38" s="12">
+        <v>16</v>
+      </c>
+      <c r="E38" s="12">
+        <v>16</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="G38" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" s="1" customFormat="1" spans="1:7">
+      <c r="A39" s="12">
+        <v>17</v>
+      </c>
+      <c r="B39" s="12">
+        <v>17</v>
+      </c>
+      <c r="C39" s="12">
+        <v>17</v>
+      </c>
+      <c r="D39" s="12">
+        <v>17</v>
+      </c>
+      <c r="E39" s="12">
+        <v>17</v>
+      </c>
+      <c r="F39" s="12">
+        <v>17</v>
+      </c>
+      <c r="G39" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" s="1" customFormat="1" spans="1:7">
+      <c r="A40" s="12">
+        <v>18</v>
+      </c>
+      <c r="B40" s="12">
+        <v>18</v>
+      </c>
+      <c r="C40" s="12">
+        <v>18</v>
+      </c>
+      <c r="D40" s="12">
+        <v>18</v>
+      </c>
+      <c r="E40" s="12">
+        <v>18</v>
+      </c>
+      <c r="F40" s="12">
+        <v>18</v>
+      </c>
+      <c r="G40" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" s="1" customFormat="1" spans="1:7">
+      <c r="A41" s="13">
+        <v>19</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C41" s="13">
+        <v>19</v>
+      </c>
+      <c r="D41" s="12">
+        <v>19</v>
+      </c>
+      <c r="E41" s="12">
+        <v>19</v>
+      </c>
+      <c r="F41" s="12">
+        <v>19</v>
+      </c>
+      <c r="G41" s="13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" s="1" customFormat="1" spans="1:7">
+      <c r="A42" s="12">
+        <v>20</v>
+      </c>
+      <c r="B42" s="12">
+        <v>20</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D42" s="12">
+        <v>20</v>
+      </c>
+      <c r="E42" s="12">
+        <v>20</v>
+      </c>
+      <c r="F42" s="13">
+        <v>20</v>
+      </c>
+      <c r="G42" s="13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" s="1" customFormat="1" spans="1:7">
+      <c r="A43" s="12">
+        <v>21</v>
+      </c>
+      <c r="B43" s="12">
+        <v>21</v>
+      </c>
+      <c r="C43" s="12">
+        <v>21</v>
+      </c>
+      <c r="D43" s="12">
+        <v>21</v>
+      </c>
+      <c r="E43" s="12">
+        <v>21</v>
+      </c>
+      <c r="F43" s="12">
+        <v>21</v>
+      </c>
+      <c r="G43" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" s="1" customFormat="1" ht="31.5" spans="1:5">
+      <c r="A44" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="64" s="1" customFormat="1" spans="1:3">
+      <c r="A64" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="65" s="1" customFormat="1" ht="30" spans="1:3">
+      <c r="A65" s="14"/>
+      <c r="B65" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="66" s="1" customFormat="1" ht="31.5" spans="1:3">
+      <c r="A66" s="14"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" s="1" customFormat="1" spans="1:7">
+      <c r="A67" s="14"/>
+      <c r="B67" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16"/>
+    </row>
+    <row r="70" s="1" customFormat="1" spans="1:2">
+      <c r="A70" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="72" s="1" customFormat="1" spans="1:3">
+      <c r="A72" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="73" s="1" customFormat="1" spans="2:3">
+      <c r="B73" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="75" s="1" customFormat="1" spans="1:3">
+      <c r="A75" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="78" s="1" customFormat="1" spans="1:3">
+      <c r="A78" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="79" s="1" customFormat="1" spans="2:3">
+      <c r="B79" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="80" s="1" customFormat="1" spans="3:3">
+      <c r="C80" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="81" s="1" customFormat="1" spans="3:3">
+      <c r="C81" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="B65:B66"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.10666666666667" defaultRowHeight="15.75" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="40.8" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.3" style="1" customWidth="1"/>
+    <col min="3" max="3" width="46.2" style="1" customWidth="1"/>
+    <col min="4" max="4" width="36" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.1066666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28.1066666666667" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.10666666666667" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:3">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:3">
+      <c r="A6" s="3"/>
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="7"/>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:3">
+      <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="6"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="31.5" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:7">
+      <c r="A17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:7">
+      <c r="A18" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="15"/>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:7">
+      <c r="A19" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:7">
+      <c r="A20" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:7">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:7">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:7">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:7">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:7">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:7">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:7">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:7">
+      <c r="A28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="15"/>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="1:7">
+      <c r="A29" s="12">
+        <v>7</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="13">
+        <v>7</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E29" s="13">
+        <v>7</v>
+      </c>
+      <c r="F29" s="13">
+        <v>7</v>
+      </c>
+      <c r="G29" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="1:7">
+      <c r="A30" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="30.75" spans="1:7">
+      <c r="A31" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="F31" s="13">
+        <v>9</v>
+      </c>
+      <c r="G31" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="1:7">
+      <c r="A32" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B32" s="12">
+        <v>10</v>
+      </c>
+      <c r="C32" s="12">
+        <v>10</v>
+      </c>
+      <c r="D32" s="13">
+        <v>10</v>
+      </c>
+      <c r="E32" s="13">
+        <v>10</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="G32" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" ht="18" customHeight="1" spans="1:7">
+      <c r="A33" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="B33" s="12">
+        <v>11</v>
+      </c>
+      <c r="C33" s="12">
+        <v>11</v>
+      </c>
+      <c r="D33" s="12">
+        <v>11</v>
+      </c>
+      <c r="E33" s="12">
+        <v>11</v>
+      </c>
+      <c r="F33" s="12">
+        <v>11</v>
+      </c>
+      <c r="G33" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" spans="1:7">
+      <c r="A34" s="12">
+        <v>12</v>
+      </c>
+      <c r="B34" s="13">
+        <v>12</v>
+      </c>
+      <c r="C34" s="13">
+        <v>12</v>
+      </c>
+      <c r="D34" s="13">
+        <v>12</v>
+      </c>
+      <c r="E34" s="13">
+        <v>12</v>
+      </c>
+      <c r="F34" s="12">
+        <v>12</v>
+      </c>
+      <c r="G34" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="1:7">
+      <c r="A35" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="B35" s="12">
+        <v>13</v>
+      </c>
+      <c r="C35" s="12">
+        <v>13</v>
+      </c>
+      <c r="D35" s="12">
+        <v>13</v>
+      </c>
+      <c r="E35" s="12">
+        <v>13</v>
+      </c>
+      <c r="F35" s="13">
+        <v>13</v>
+      </c>
+      <c r="G35" s="12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="1" spans="1:7">
+      <c r="A36" s="12">
+        <v>14</v>
+      </c>
+      <c r="B36" s="12">
+        <v>14</v>
+      </c>
+      <c r="C36" s="12">
+        <v>14</v>
+      </c>
+      <c r="D36" s="13">
+        <v>14</v>
+      </c>
+      <c r="E36" s="12">
+        <v>14</v>
+      </c>
+      <c r="F36" s="12">
+        <v>14</v>
+      </c>
+      <c r="G36" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="1:7">
+      <c r="A37" s="12">
+        <v>15</v>
+      </c>
+      <c r="B37" s="12">
+        <v>15</v>
+      </c>
+      <c r="C37" s="12">
+        <v>15</v>
+      </c>
+      <c r="D37" s="12">
+        <v>15</v>
+      </c>
+      <c r="E37" s="12">
+        <v>15</v>
+      </c>
+      <c r="F37" s="13">
+        <v>15</v>
+      </c>
+      <c r="G37" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" s="1" customFormat="1" spans="1:7">
+      <c r="A38" s="12">
+        <v>16</v>
+      </c>
+      <c r="B38" s="12">
+        <v>16</v>
+      </c>
+      <c r="C38" s="12">
+        <v>16</v>
+      </c>
+      <c r="D38" s="12">
+        <v>16</v>
+      </c>
+      <c r="E38" s="12">
+        <v>16</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="G38" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" s="1" customFormat="1" spans="1:7">
+      <c r="A39" s="12">
+        <v>17</v>
+      </c>
+      <c r="B39" s="12">
+        <v>17</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="E39" s="12">
+        <v>17</v>
+      </c>
+      <c r="F39" s="12">
+        <v>17</v>
+      </c>
+      <c r="G39" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" s="1" customFormat="1" spans="1:7">
+      <c r="A40" s="12">
+        <v>18</v>
+      </c>
+      <c r="B40" s="12">
+        <v>18</v>
+      </c>
+      <c r="C40" s="12">
+        <v>18</v>
+      </c>
+      <c r="D40" s="12">
+        <v>18</v>
+      </c>
+      <c r="E40" s="12">
+        <v>18</v>
+      </c>
+      <c r="F40" s="12">
+        <v>18</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="41" s="1" customFormat="1" spans="1:7">
+      <c r="A41" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="B41" s="13">
+        <v>19</v>
+      </c>
+      <c r="C41" s="13">
+        <v>19</v>
+      </c>
+      <c r="D41" s="12">
+        <v>19</v>
+      </c>
+      <c r="E41" s="12">
+        <v>19</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="G41" s="13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" s="1" customFormat="1" spans="1:7">
+      <c r="A42" s="12">
+        <v>20</v>
+      </c>
+      <c r="B42" s="12">
+        <v>20</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="E42" s="12">
+        <v>20</v>
+      </c>
+      <c r="F42" s="13">
+        <v>20</v>
+      </c>
+      <c r="G42" s="13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" s="1" customFormat="1" spans="1:7">
+      <c r="A43" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="B43" s="12">
+        <v>21</v>
+      </c>
+      <c r="C43" s="12">
+        <v>21</v>
+      </c>
+      <c r="D43" s="12">
+        <v>21</v>
+      </c>
+      <c r="E43" s="12">
+        <v>21</v>
+      </c>
+      <c r="F43" s="12">
+        <v>21</v>
+      </c>
+      <c r="G43" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" s="1" customFormat="1" ht="30.75" spans="1:3">
+      <c r="A44" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="64" s="1" customFormat="1" spans="1:3">
+      <c r="A64" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="65" s="1" customFormat="1" ht="30" spans="1:3">
+      <c r="A65" s="14"/>
+      <c r="B65" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="66" s="1" customFormat="1" ht="31.5" spans="1:3">
+      <c r="A66" s="14"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" s="1" customFormat="1" spans="1:7">
+      <c r="A67" s="14"/>
+      <c r="B67" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16"/>
+    </row>
+    <row r="70" s="1" customFormat="1" spans="1:2">
+      <c r="A70" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="72" s="1" customFormat="1" spans="1:3">
+      <c r="A72" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="73" s="1" customFormat="1" spans="2:3">
+      <c r="B73" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="75" s="1" customFormat="1" spans="1:3">
+      <c r="A75" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="78" s="1" customFormat="1" spans="1:3">
+      <c r="A78" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="79" s="1" customFormat="1" spans="2:3">
+      <c r="B79" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="80" s="1" customFormat="1" spans="3:3">
+      <c r="C80" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="81" s="1" customFormat="1" spans="3:3">
+      <c r="C81" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="B65:B66"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>